--- a/现金流量表/688608.xlsx
+++ b/现金流量表/688608.xlsx
@@ -744,53 +744,51 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-15411368.84</v>
+        <v>-38750830.2</v>
       </c>
       <c r="P2" t="n">
-        <v>-287.9841076192</v>
+        <v>-84.0562630957</v>
       </c>
       <c r="Q2" t="n">
-        <v>347849264.41</v>
+        <v>86646198.45999999</v>
       </c>
       <c r="R2" t="n">
-        <v>6500.0754337358</v>
+        <v>187.9483772711</v>
       </c>
       <c r="S2" t="n">
-        <v>45878918.49</v>
+        <v>28384797.3</v>
       </c>
       <c r="T2" t="n">
-        <v>857.3151117885</v>
+        <v>61.5708096434</v>
       </c>
       <c r="U2" t="n">
-        <v>-15369318.66</v>
+        <v>-6631492.88</v>
       </c>
       <c r="V2" t="n">
-        <v>-287.1983381209</v>
+        <v>-14.3846856277</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>15369318.66</v>
+        <v>6631492.88</v>
       </c>
       <c r="Z2" t="n">
-        <v>287.1983381209</v>
+        <v>14.3846856277</v>
       </c>
       <c r="AA2" t="n">
-        <v>34264125.5</v>
+        <v>92709114.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>640.2756113305001</v>
+        <v>201.0997357868</v>
       </c>
       <c r="AC2" t="n">
-        <v>5351465.04</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-88.3918834505</v>
-      </c>
+        <v>46101062.28</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
